--- a/2022/Samsung/February/03.02.2022/SAMSUNG Bank Statement FEB-2022.xlsx
+++ b/2022/Samsung/February/03.02.2022/SAMSUNG Bank Statement FEB-2022.xlsx
@@ -2644,6 +2644,30 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="34" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="33" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="33" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="33" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="33" fillId="34" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="33" fillId="34" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2655,18 +2679,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2695,10 +2707,22 @@
     <xf numFmtId="1" fontId="37" fillId="35" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="35" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="35" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="37" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2787,30 +2811,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="43" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="33" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="33" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="33" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="33" fillId="34" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="33" fillId="34" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -3269,33 +3269,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="306"/>
-      <c r="B1" s="306"/>
-      <c r="C1" s="306"/>
-      <c r="D1" s="306"/>
-      <c r="E1" s="306"/>
-      <c r="F1" s="306"/>
+      <c r="A1" s="314"/>
+      <c r="B1" s="314"/>
+      <c r="C1" s="314"/>
+      <c r="D1" s="314"/>
+      <c r="E1" s="314"/>
+      <c r="F1" s="314"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="307"/>
-      <c r="B2" s="304" t="s">
+      <c r="A2" s="315"/>
+      <c r="B2" s="312" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="304"/>
-      <c r="D2" s="304"/>
-      <c r="E2" s="304"/>
+      <c r="C2" s="312"/>
+      <c r="D2" s="312"/>
+      <c r="E2" s="312"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="307"/>
-      <c r="B3" s="305" t="s">
+      <c r="A3" s="315"/>
+      <c r="B3" s="313" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="305"/>
-      <c r="D3" s="305"/>
-      <c r="E3" s="305"/>
+      <c r="C3" s="313"/>
+      <c r="D3" s="313"/>
+      <c r="E3" s="313"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="307"/>
+      <c r="A4" s="315"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -3313,7 +3313,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="307"/>
+      <c r="A5" s="315"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -3331,7 +3331,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="307"/>
+      <c r="A6" s="315"/>
       <c r="B6" s="26"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -3343,7 +3343,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="307"/>
+      <c r="A7" s="315"/>
       <c r="B7" s="26" t="s">
         <v>46</v>
       </c>
@@ -3362,7 +3362,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="307"/>
+      <c r="A8" s="315"/>
       <c r="B8" s="26" t="s">
         <v>47</v>
       </c>
@@ -3381,7 +3381,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="307"/>
+      <c r="A9" s="315"/>
       <c r="B9" s="26" t="s">
         <v>49</v>
       </c>
@@ -3400,7 +3400,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="307"/>
+      <c r="A10" s="315"/>
       <c r="B10" s="26" t="s">
         <v>50</v>
       </c>
@@ -3419,7 +3419,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="307"/>
+      <c r="A11" s="315"/>
       <c r="B11" s="26" t="s">
         <v>51</v>
       </c>
@@ -3438,7 +3438,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="307"/>
+      <c r="A12" s="315"/>
       <c r="B12" s="26" t="s">
         <v>52</v>
       </c>
@@ -3457,7 +3457,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="307"/>
+      <c r="A13" s="315"/>
       <c r="B13" s="26" t="s">
         <v>53</v>
       </c>
@@ -3476,7 +3476,7 @@
       <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="307"/>
+      <c r="A14" s="315"/>
       <c r="B14" s="26" t="s">
         <v>54</v>
       </c>
@@ -3495,7 +3495,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="307"/>
+      <c r="A15" s="315"/>
       <c r="B15" s="26" t="s">
         <v>55</v>
       </c>
@@ -3514,7 +3514,7 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="307"/>
+      <c r="A16" s="315"/>
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -3527,7 +3527,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="307"/>
+      <c r="A17" s="315"/>
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -3540,7 +3540,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="307"/>
+      <c r="A18" s="315"/>
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -3553,7 +3553,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="307"/>
+      <c r="A19" s="315"/>
       <c r="B19" s="26"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -3566,7 +3566,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="307"/>
+      <c r="A20" s="315"/>
       <c r="B20" s="26"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -3579,7 +3579,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="307"/>
+      <c r="A21" s="315"/>
       <c r="B21" s="26"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -3592,7 +3592,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="307"/>
+      <c r="A22" s="315"/>
       <c r="B22" s="26"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
@@ -3605,7 +3605,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="307"/>
+      <c r="A23" s="315"/>
       <c r="B23" s="26"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -3618,7 +3618,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="307"/>
+      <c r="A24" s="315"/>
       <c r="B24" s="26"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -3631,7 +3631,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="307"/>
+      <c r="A25" s="315"/>
       <c r="B25" s="26"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
@@ -3644,7 +3644,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="307"/>
+      <c r="A26" s="315"/>
       <c r="B26" s="26"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -3657,7 +3657,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="307"/>
+      <c r="A27" s="315"/>
       <c r="B27" s="26"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
@@ -3670,7 +3670,7 @@
       <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="307"/>
+      <c r="A28" s="315"/>
       <c r="B28" s="26"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
@@ -3683,7 +3683,7 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="307"/>
+      <c r="A29" s="315"/>
       <c r="B29" s="26"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
@@ -3696,7 +3696,7 @@
       <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="307"/>
+      <c r="A30" s="315"/>
       <c r="B30" s="26"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
@@ -3709,7 +3709,7 @@
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="307"/>
+      <c r="A31" s="315"/>
       <c r="B31" s="26"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
@@ -3722,7 +3722,7 @@
       <c r="H31" s="21"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="307"/>
+      <c r="A32" s="315"/>
       <c r="B32" s="26"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
@@ -3735,7 +3735,7 @@
       <c r="H32" s="21"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="307"/>
+      <c r="A33" s="315"/>
       <c r="B33" s="26"/>
       <c r="C33" s="25"/>
       <c r="D33" s="28"/>
@@ -3748,7 +3748,7 @@
       <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="307"/>
+      <c r="A34" s="315"/>
       <c r="B34" s="26"/>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
@@ -3761,7 +3761,7 @@
       <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="307"/>
+      <c r="A35" s="315"/>
       <c r="B35" s="26"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
@@ -3774,7 +3774,7 @@
       <c r="H35" s="21"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="307"/>
+      <c r="A36" s="315"/>
       <c r="B36" s="26"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
@@ -3787,7 +3787,7 @@
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="307"/>
+      <c r="A37" s="315"/>
       <c r="B37" s="26"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -3800,7 +3800,7 @@
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="307"/>
+      <c r="A38" s="315"/>
       <c r="B38" s="26"/>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
@@ -3813,7 +3813,7 @@
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="307"/>
+      <c r="A39" s="315"/>
       <c r="B39" s="26"/>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
@@ -3826,7 +3826,7 @@
       <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="307"/>
+      <c r="A40" s="315"/>
       <c r="B40" s="26"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
@@ -3839,7 +3839,7 @@
       <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="307"/>
+      <c r="A41" s="315"/>
       <c r="B41" s="26"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
@@ -3852,7 +3852,7 @@
       <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="307"/>
+      <c r="A42" s="315"/>
       <c r="B42" s="26"/>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
@@ -3865,7 +3865,7 @@
       <c r="H42" s="21"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="307"/>
+      <c r="A43" s="315"/>
       <c r="B43" s="26"/>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
@@ -3878,7 +3878,7 @@
       <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="307"/>
+      <c r="A44" s="315"/>
       <c r="B44" s="26"/>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
@@ -3891,7 +3891,7 @@
       <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="307"/>
+      <c r="A45" s="315"/>
       <c r="B45" s="26"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
@@ -3904,7 +3904,7 @@
       <c r="H45" s="21"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="307"/>
+      <c r="A46" s="315"/>
       <c r="B46" s="26"/>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
@@ -3917,7 +3917,7 @@
       <c r="H46" s="21"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="307"/>
+      <c r="A47" s="315"/>
       <c r="B47" s="26"/>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
@@ -3930,7 +3930,7 @@
       <c r="H47" s="21"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="307"/>
+      <c r="A48" s="315"/>
       <c r="B48" s="26"/>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
@@ -3943,7 +3943,7 @@
       <c r="H48" s="21"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="307"/>
+      <c r="A49" s="315"/>
       <c r="B49" s="26"/>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
@@ -3956,7 +3956,7 @@
       <c r="H49" s="21"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="307"/>
+      <c r="A50" s="315"/>
       <c r="B50" s="26"/>
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
@@ -3969,7 +3969,7 @@
       <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="307"/>
+      <c r="A51" s="315"/>
       <c r="B51" s="26"/>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
@@ -3982,7 +3982,7 @@
       <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="307"/>
+      <c r="A52" s="315"/>
       <c r="B52" s="26"/>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
@@ -3995,7 +3995,7 @@
       <c r="H52" s="21"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="307"/>
+      <c r="A53" s="315"/>
       <c r="B53" s="26"/>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
@@ -4008,7 +4008,7 @@
       <c r="H53" s="21"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="307"/>
+      <c r="A54" s="315"/>
       <c r="B54" s="26"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -4021,7 +4021,7 @@
       <c r="H54" s="21"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="307"/>
+      <c r="A55" s="315"/>
       <c r="B55" s="26"/>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
@@ -4033,7 +4033,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="307"/>
+      <c r="A56" s="315"/>
       <c r="B56" s="26"/>
       <c r="C56" s="25"/>
       <c r="D56" s="25"/>
@@ -4045,7 +4045,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="307"/>
+      <c r="A57" s="315"/>
       <c r="B57" s="26"/>
       <c r="C57" s="25"/>
       <c r="D57" s="25"/>
@@ -4057,7 +4057,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="307"/>
+      <c r="A58" s="315"/>
       <c r="B58" s="26"/>
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
@@ -4069,7 +4069,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="307"/>
+      <c r="A59" s="315"/>
       <c r="B59" s="26"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
@@ -4081,7 +4081,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="307"/>
+      <c r="A60" s="315"/>
       <c r="B60" s="26"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
@@ -4093,7 +4093,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="307"/>
+      <c r="A61" s="315"/>
       <c r="B61" s="26"/>
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
@@ -4105,7 +4105,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="307"/>
+      <c r="A62" s="315"/>
       <c r="B62" s="26"/>
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
@@ -4117,7 +4117,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="307"/>
+      <c r="A63" s="315"/>
       <c r="B63" s="26"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
@@ -4129,7 +4129,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="307"/>
+      <c r="A64" s="315"/>
       <c r="B64" s="26"/>
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
@@ -4141,7 +4141,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="307"/>
+      <c r="A65" s="315"/>
       <c r="B65" s="26"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
@@ -4153,7 +4153,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="307"/>
+      <c r="A66" s="315"/>
       <c r="B66" s="26"/>
       <c r="C66" s="25"/>
       <c r="D66" s="25"/>
@@ -4165,7 +4165,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="307"/>
+      <c r="A67" s="315"/>
       <c r="B67" s="26"/>
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
@@ -4177,7 +4177,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="307"/>
+      <c r="A68" s="315"/>
       <c r="B68" s="26"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
@@ -4189,7 +4189,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="307"/>
+      <c r="A69" s="315"/>
       <c r="B69" s="26"/>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
@@ -4201,7 +4201,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="307"/>
+      <c r="A70" s="315"/>
       <c r="B70" s="26"/>
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
@@ -4213,7 +4213,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="307"/>
+      <c r="A71" s="315"/>
       <c r="B71" s="26"/>
       <c r="C71" s="25"/>
       <c r="D71" s="25"/>
@@ -4225,7 +4225,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="307"/>
+      <c r="A72" s="315"/>
       <c r="B72" s="26"/>
       <c r="C72" s="25"/>
       <c r="D72" s="25"/>
@@ -4237,7 +4237,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="307"/>
+      <c r="A73" s="315"/>
       <c r="B73" s="26"/>
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
@@ -4249,7 +4249,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="307"/>
+      <c r="A74" s="315"/>
       <c r="B74" s="26"/>
       <c r="C74" s="25"/>
       <c r="D74" s="25"/>
@@ -4261,7 +4261,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="307"/>
+      <c r="A75" s="315"/>
       <c r="B75" s="26"/>
       <c r="C75" s="25"/>
       <c r="D75" s="25"/>
@@ -4273,7 +4273,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="307"/>
+      <c r="A76" s="315"/>
       <c r="B76" s="26"/>
       <c r="C76" s="25"/>
       <c r="D76" s="25"/>
@@ -4285,7 +4285,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="307"/>
+      <c r="A77" s="315"/>
       <c r="B77" s="26"/>
       <c r="C77" s="25"/>
       <c r="D77" s="25"/>
@@ -4297,7 +4297,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="307"/>
+      <c r="A78" s="315"/>
       <c r="B78" s="26"/>
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
@@ -4309,7 +4309,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="307"/>
+      <c r="A79" s="315"/>
       <c r="B79" s="26"/>
       <c r="C79" s="25"/>
       <c r="D79" s="25"/>
@@ -4321,7 +4321,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="307"/>
+      <c r="A80" s="315"/>
       <c r="B80" s="26"/>
       <c r="C80" s="25"/>
       <c r="D80" s="25"/>
@@ -4333,7 +4333,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="307"/>
+      <c r="A81" s="315"/>
       <c r="B81" s="26"/>
       <c r="C81" s="25"/>
       <c r="D81" s="25"/>
@@ -4345,7 +4345,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="307"/>
+      <c r="A82" s="315"/>
       <c r="B82" s="26"/>
       <c r="C82" s="25"/>
       <c r="D82" s="25"/>
@@ -4357,7 +4357,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="307"/>
+      <c r="A83" s="315"/>
       <c r="B83" s="31"/>
       <c r="C83" s="27">
         <f>SUM(C5:C72)</f>
@@ -4414,33 +4414,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A1" s="306"/>
-      <c r="B1" s="306"/>
-      <c r="C1" s="306"/>
-      <c r="D1" s="306"/>
-      <c r="E1" s="306"/>
-      <c r="F1" s="306"/>
+      <c r="A1" s="314"/>
+      <c r="B1" s="314"/>
+      <c r="C1" s="314"/>
+      <c r="D1" s="314"/>
+      <c r="E1" s="314"/>
+      <c r="F1" s="314"/>
     </row>
     <row r="2" spans="1:7" ht="20.25">
-      <c r="A2" s="307"/>
-      <c r="B2" s="304" t="s">
+      <c r="A2" s="315"/>
+      <c r="B2" s="312" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="304"/>
-      <c r="D2" s="304"/>
-      <c r="E2" s="304"/>
+      <c r="C2" s="312"/>
+      <c r="D2" s="312"/>
+      <c r="E2" s="312"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A3" s="307"/>
-      <c r="B3" s="305" t="s">
+      <c r="A3" s="315"/>
+      <c r="B3" s="313" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="305"/>
-      <c r="D3" s="305"/>
-      <c r="E3" s="305"/>
+      <c r="C3" s="313"/>
+      <c r="D3" s="313"/>
+      <c r="E3" s="313"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="307"/>
+      <c r="A4" s="315"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -4458,7 +4458,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="307"/>
+      <c r="A5" s="315"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -4476,7 +4476,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="307"/>
+      <c r="A6" s="315"/>
       <c r="B6" s="26"/>
       <c r="C6" s="264"/>
       <c r="D6" s="264"/>
@@ -4488,7 +4488,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="307"/>
+      <c r="A7" s="315"/>
       <c r="B7" s="26" t="s">
         <v>72</v>
       </c>
@@ -4506,7 +4506,7 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="307"/>
+      <c r="A8" s="315"/>
       <c r="B8" s="26" t="s">
         <v>92</v>
       </c>
@@ -4524,7 +4524,7 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="307"/>
+      <c r="A9" s="315"/>
       <c r="B9" s="26" t="s">
         <v>101</v>
       </c>
@@ -4542,7 +4542,7 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="307"/>
+      <c r="A10" s="315"/>
       <c r="B10" s="26"/>
       <c r="C10" s="267"/>
       <c r="D10" s="267"/>
@@ -4554,7 +4554,7 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="307"/>
+      <c r="A11" s="315"/>
       <c r="B11" s="26"/>
       <c r="C11" s="264"/>
       <c r="D11" s="264"/>
@@ -4566,7 +4566,7 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="307"/>
+      <c r="A12" s="315"/>
       <c r="B12" s="26"/>
       <c r="C12" s="264"/>
       <c r="D12" s="264"/>
@@ -4578,7 +4578,7 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="307"/>
+      <c r="A13" s="315"/>
       <c r="B13" s="26"/>
       <c r="C13" s="264"/>
       <c r="D13" s="264"/>
@@ -4590,7 +4590,7 @@
       <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="307"/>
+      <c r="A14" s="315"/>
       <c r="B14" s="26"/>
       <c r="C14" s="264"/>
       <c r="D14" s="264"/>
@@ -4602,7 +4602,7 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="307"/>
+      <c r="A15" s="315"/>
       <c r="B15" s="26"/>
       <c r="C15" s="264"/>
       <c r="D15" s="264"/>
@@ -4614,7 +4614,7 @@
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="307"/>
+      <c r="A16" s="315"/>
       <c r="B16" s="26"/>
       <c r="C16" s="264"/>
       <c r="D16" s="264"/>
@@ -4626,7 +4626,7 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="307"/>
+      <c r="A17" s="315"/>
       <c r="B17" s="26"/>
       <c r="C17" s="264"/>
       <c r="D17" s="264"/>
@@ -4638,7 +4638,7 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="307"/>
+      <c r="A18" s="315"/>
       <c r="B18" s="26"/>
       <c r="C18" s="264"/>
       <c r="D18" s="264"/>
@@ -4650,7 +4650,7 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A19" s="307"/>
+      <c r="A19" s="315"/>
       <c r="B19" s="26"/>
       <c r="C19" s="264"/>
       <c r="D19" s="267"/>
@@ -4662,7 +4662,7 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="307"/>
+      <c r="A20" s="315"/>
       <c r="B20" s="26"/>
       <c r="C20" s="264"/>
       <c r="D20" s="264"/>
@@ -4674,7 +4674,7 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="307"/>
+      <c r="A21" s="315"/>
       <c r="B21" s="26"/>
       <c r="C21" s="264"/>
       <c r="D21" s="264"/>
@@ -4686,7 +4686,7 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="307"/>
+      <c r="A22" s="315"/>
       <c r="B22" s="26"/>
       <c r="C22" s="264"/>
       <c r="D22" s="264"/>
@@ -4698,7 +4698,7 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="307"/>
+      <c r="A23" s="315"/>
       <c r="B23" s="26"/>
       <c r="C23" s="264"/>
       <c r="D23" s="264"/>
@@ -4710,7 +4710,7 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="307"/>
+      <c r="A24" s="315"/>
       <c r="B24" s="26"/>
       <c r="C24" s="264"/>
       <c r="D24" s="264"/>
@@ -4722,7 +4722,7 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="307"/>
+      <c r="A25" s="315"/>
       <c r="B25" s="26"/>
       <c r="C25" s="264"/>
       <c r="D25" s="264"/>
@@ -4734,7 +4734,7 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="307"/>
+      <c r="A26" s="315"/>
       <c r="B26" s="26"/>
       <c r="C26" s="264"/>
       <c r="D26" s="264"/>
@@ -4746,7 +4746,7 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="307"/>
+      <c r="A27" s="315"/>
       <c r="B27" s="26"/>
       <c r="C27" s="264"/>
       <c r="D27" s="264"/>
@@ -4758,7 +4758,7 @@
       <c r="G27" s="21"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="307"/>
+      <c r="A28" s="315"/>
       <c r="B28" s="26"/>
       <c r="C28" s="264"/>
       <c r="D28" s="264"/>
@@ -4770,7 +4770,7 @@
       <c r="G28" s="21"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="307"/>
+      <c r="A29" s="315"/>
       <c r="B29" s="26"/>
       <c r="C29" s="264"/>
       <c r="D29" s="264"/>
@@ -4782,7 +4782,7 @@
       <c r="G29" s="21"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="307"/>
+      <c r="A30" s="315"/>
       <c r="B30" s="26"/>
       <c r="C30" s="264"/>
       <c r="D30" s="264"/>
@@ -4794,7 +4794,7 @@
       <c r="G30" s="21"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="307"/>
+      <c r="A31" s="315"/>
       <c r="B31" s="26"/>
       <c r="C31" s="264"/>
       <c r="D31" s="264"/>
@@ -4806,7 +4806,7 @@
       <c r="G31" s="21"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="307"/>
+      <c r="A32" s="315"/>
       <c r="B32" s="26"/>
       <c r="C32" s="264"/>
       <c r="D32" s="264"/>
@@ -4818,7 +4818,7 @@
       <c r="G32" s="21"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="307"/>
+      <c r="A33" s="315"/>
       <c r="B33" s="26"/>
       <c r="C33" s="264"/>
       <c r="D33" s="267"/>
@@ -4830,7 +4830,7 @@
       <c r="G33" s="21"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="307"/>
+      <c r="A34" s="315"/>
       <c r="B34" s="26"/>
       <c r="C34" s="264"/>
       <c r="D34" s="264"/>
@@ -4842,7 +4842,7 @@
       <c r="G34" s="21"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="307"/>
+      <c r="A35" s="315"/>
       <c r="B35" s="26"/>
       <c r="C35" s="264"/>
       <c r="D35" s="264"/>
@@ -4854,7 +4854,7 @@
       <c r="G35" s="21"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="307"/>
+      <c r="A36" s="315"/>
       <c r="B36" s="26"/>
       <c r="C36" s="264"/>
       <c r="D36" s="264"/>
@@ -4866,7 +4866,7 @@
       <c r="G36" s="21"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="307"/>
+      <c r="A37" s="315"/>
       <c r="B37" s="26"/>
       <c r="C37" s="264"/>
       <c r="D37" s="264"/>
@@ -4878,7 +4878,7 @@
       <c r="G37" s="21"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="307"/>
+      <c r="A38" s="315"/>
       <c r="B38" s="26"/>
       <c r="C38" s="264"/>
       <c r="D38" s="264"/>
@@ -4890,7 +4890,7 @@
       <c r="G38" s="21"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="307"/>
+      <c r="A39" s="315"/>
       <c r="B39" s="26"/>
       <c r="C39" s="264"/>
       <c r="D39" s="264"/>
@@ -4902,7 +4902,7 @@
       <c r="G39" s="21"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="307"/>
+      <c r="A40" s="315"/>
       <c r="B40" s="26"/>
       <c r="C40" s="264"/>
       <c r="D40" s="264"/>
@@ -4914,7 +4914,7 @@
       <c r="G40" s="21"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="307"/>
+      <c r="A41" s="315"/>
       <c r="B41" s="26"/>
       <c r="C41" s="264"/>
       <c r="D41" s="264"/>
@@ -4926,7 +4926,7 @@
       <c r="G41" s="21"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="307"/>
+      <c r="A42" s="315"/>
       <c r="B42" s="26"/>
       <c r="C42" s="264"/>
       <c r="D42" s="264"/>
@@ -4938,7 +4938,7 @@
       <c r="G42" s="21"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="307"/>
+      <c r="A43" s="315"/>
       <c r="B43" s="26"/>
       <c r="C43" s="264"/>
       <c r="D43" s="264"/>
@@ -4950,7 +4950,7 @@
       <c r="G43" s="21"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="307"/>
+      <c r="A44" s="315"/>
       <c r="B44" s="26"/>
       <c r="C44" s="264"/>
       <c r="D44" s="264"/>
@@ -4962,7 +4962,7 @@
       <c r="G44" s="21"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="307"/>
+      <c r="A45" s="315"/>
       <c r="B45" s="26"/>
       <c r="C45" s="264"/>
       <c r="D45" s="264"/>
@@ -4974,7 +4974,7 @@
       <c r="G45" s="21"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="307"/>
+      <c r="A46" s="315"/>
       <c r="B46" s="26"/>
       <c r="C46" s="264"/>
       <c r="D46" s="264"/>
@@ -4986,7 +4986,7 @@
       <c r="G46" s="21"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="307"/>
+      <c r="A47" s="315"/>
       <c r="B47" s="26"/>
       <c r="C47" s="264"/>
       <c r="D47" s="264"/>
@@ -4998,7 +4998,7 @@
       <c r="G47" s="21"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="307"/>
+      <c r="A48" s="315"/>
       <c r="B48" s="26"/>
       <c r="C48" s="264"/>
       <c r="D48" s="264"/>
@@ -5010,7 +5010,7 @@
       <c r="G48" s="21"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="307"/>
+      <c r="A49" s="315"/>
       <c r="B49" s="26"/>
       <c r="C49" s="264"/>
       <c r="D49" s="264"/>
@@ -5022,7 +5022,7 @@
       <c r="G49" s="21"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="307"/>
+      <c r="A50" s="315"/>
       <c r="B50" s="26"/>
       <c r="C50" s="264"/>
       <c r="D50" s="264"/>
@@ -5034,7 +5034,7 @@
       <c r="G50" s="21"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="307"/>
+      <c r="A51" s="315"/>
       <c r="B51" s="26"/>
       <c r="C51" s="264"/>
       <c r="D51" s="264"/>
@@ -5046,7 +5046,7 @@
       <c r="G51" s="21"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="307"/>
+      <c r="A52" s="315"/>
       <c r="B52" s="26"/>
       <c r="C52" s="264"/>
       <c r="D52" s="264"/>
@@ -5058,7 +5058,7 @@
       <c r="G52" s="21"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="307"/>
+      <c r="A53" s="315"/>
       <c r="B53" s="26"/>
       <c r="C53" s="264"/>
       <c r="D53" s="264"/>
@@ -5070,7 +5070,7 @@
       <c r="G53" s="21"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="307"/>
+      <c r="A54" s="315"/>
       <c r="B54" s="26"/>
       <c r="C54" s="264"/>
       <c r="D54" s="264"/>
@@ -5082,7 +5082,7 @@
       <c r="G54" s="21"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="307"/>
+      <c r="A55" s="315"/>
       <c r="B55" s="26"/>
       <c r="C55" s="264"/>
       <c r="D55" s="264"/>
@@ -5093,7 +5093,7 @@
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="307"/>
+      <c r="A56" s="315"/>
       <c r="B56" s="26"/>
       <c r="C56" s="264"/>
       <c r="D56" s="264"/>
@@ -5104,7 +5104,7 @@
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="307"/>
+      <c r="A57" s="315"/>
       <c r="B57" s="26"/>
       <c r="C57" s="264"/>
       <c r="D57" s="264"/>
@@ -5115,7 +5115,7 @@
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="307"/>
+      <c r="A58" s="315"/>
       <c r="B58" s="26"/>
       <c r="C58" s="264"/>
       <c r="D58" s="264"/>
@@ -5126,7 +5126,7 @@
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="307"/>
+      <c r="A59" s="315"/>
       <c r="B59" s="26"/>
       <c r="C59" s="264"/>
       <c r="D59" s="264"/>
@@ -5137,7 +5137,7 @@
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="307"/>
+      <c r="A60" s="315"/>
       <c r="B60" s="26"/>
       <c r="C60" s="264"/>
       <c r="D60" s="264"/>
@@ -5148,7 +5148,7 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="307"/>
+      <c r="A61" s="315"/>
       <c r="B61" s="26"/>
       <c r="C61" s="264"/>
       <c r="D61" s="264"/>
@@ -5159,7 +5159,7 @@
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="307"/>
+      <c r="A62" s="315"/>
       <c r="B62" s="26"/>
       <c r="C62" s="264"/>
       <c r="D62" s="264"/>
@@ -5170,7 +5170,7 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="307"/>
+      <c r="A63" s="315"/>
       <c r="B63" s="26"/>
       <c r="C63" s="264"/>
       <c r="D63" s="264"/>
@@ -5181,7 +5181,7 @@
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="307"/>
+      <c r="A64" s="315"/>
       <c r="B64" s="26"/>
       <c r="C64" s="264"/>
       <c r="D64" s="264"/>
@@ -5192,7 +5192,7 @@
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="307"/>
+      <c r="A65" s="315"/>
       <c r="B65" s="26"/>
       <c r="C65" s="264"/>
       <c r="D65" s="264"/>
@@ -5203,7 +5203,7 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="307"/>
+      <c r="A66" s="315"/>
       <c r="B66" s="26"/>
       <c r="C66" s="264"/>
       <c r="D66" s="264"/>
@@ -5214,7 +5214,7 @@
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="307"/>
+      <c r="A67" s="315"/>
       <c r="B67" s="26"/>
       <c r="C67" s="264"/>
       <c r="D67" s="264"/>
@@ -5225,7 +5225,7 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="307"/>
+      <c r="A68" s="315"/>
       <c r="B68" s="26"/>
       <c r="C68" s="264"/>
       <c r="D68" s="264"/>
@@ -5236,7 +5236,7 @@
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="307"/>
+      <c r="A69" s="315"/>
       <c r="B69" s="26"/>
       <c r="C69" s="264"/>
       <c r="D69" s="264"/>
@@ -5247,7 +5247,7 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="307"/>
+      <c r="A70" s="315"/>
       <c r="B70" s="26"/>
       <c r="C70" s="264"/>
       <c r="D70" s="264"/>
@@ -5258,7 +5258,7 @@
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="307"/>
+      <c r="A71" s="315"/>
       <c r="B71" s="26"/>
       <c r="C71" s="264"/>
       <c r="D71" s="264"/>
@@ -5269,7 +5269,7 @@
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="307"/>
+      <c r="A72" s="315"/>
       <c r="B72" s="26"/>
       <c r="C72" s="264"/>
       <c r="D72" s="264"/>
@@ -5280,7 +5280,7 @@
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="307"/>
+      <c r="A73" s="315"/>
       <c r="B73" s="26"/>
       <c r="C73" s="264"/>
       <c r="D73" s="264"/>
@@ -5291,7 +5291,7 @@
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="307"/>
+      <c r="A74" s="315"/>
       <c r="B74" s="26"/>
       <c r="C74" s="264"/>
       <c r="D74" s="264"/>
@@ -5302,7 +5302,7 @@
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="307"/>
+      <c r="A75" s="315"/>
       <c r="B75" s="26"/>
       <c r="C75" s="264"/>
       <c r="D75" s="264"/>
@@ -5313,7 +5313,7 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="307"/>
+      <c r="A76" s="315"/>
       <c r="B76" s="26"/>
       <c r="C76" s="264"/>
       <c r="D76" s="264"/>
@@ -5324,7 +5324,7 @@
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="307"/>
+      <c r="A77" s="315"/>
       <c r="B77" s="26"/>
       <c r="C77" s="264"/>
       <c r="D77" s="264"/>
@@ -5335,7 +5335,7 @@
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="307"/>
+      <c r="A78" s="315"/>
       <c r="B78" s="26"/>
       <c r="C78" s="264"/>
       <c r="D78" s="264"/>
@@ -5346,7 +5346,7 @@
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="307"/>
+      <c r="A79" s="315"/>
       <c r="B79" s="26"/>
       <c r="C79" s="264"/>
       <c r="D79" s="264"/>
@@ -5358,7 +5358,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="307"/>
+      <c r="A80" s="315"/>
       <c r="B80" s="26"/>
       <c r="C80" s="264"/>
       <c r="D80" s="264"/>
@@ -5370,7 +5370,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="307"/>
+      <c r="A81" s="315"/>
       <c r="B81" s="26"/>
       <c r="C81" s="264"/>
       <c r="D81" s="264"/>
@@ -5382,7 +5382,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="307"/>
+      <c r="A82" s="315"/>
       <c r="B82" s="26"/>
       <c r="C82" s="264"/>
       <c r="D82" s="264"/>
@@ -5394,7 +5394,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="307"/>
+      <c r="A83" s="315"/>
       <c r="B83" s="31"/>
       <c r="C83" s="266">
         <f>SUM(C5:C72)</f>
@@ -5449,67 +5449,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="312" t="s">
+      <c r="A1" s="316" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="312"/>
-      <c r="C1" s="312"/>
-      <c r="D1" s="312"/>
-      <c r="E1" s="312"/>
-      <c r="F1" s="312"/>
-      <c r="G1" s="312"/>
-      <c r="H1" s="312"/>
-      <c r="I1" s="312"/>
-      <c r="J1" s="312"/>
-      <c r="K1" s="312"/>
-      <c r="L1" s="312"/>
-      <c r="M1" s="312"/>
-      <c r="N1" s="312"/>
-      <c r="O1" s="312"/>
-      <c r="P1" s="312"/>
-      <c r="Q1" s="312"/>
+      <c r="B1" s="316"/>
+      <c r="C1" s="316"/>
+      <c r="D1" s="316"/>
+      <c r="E1" s="316"/>
+      <c r="F1" s="316"/>
+      <c r="G1" s="316"/>
+      <c r="H1" s="316"/>
+      <c r="I1" s="316"/>
+      <c r="J1" s="316"/>
+      <c r="K1" s="316"/>
+      <c r="L1" s="316"/>
+      <c r="M1" s="316"/>
+      <c r="N1" s="316"/>
+      <c r="O1" s="316"/>
+      <c r="P1" s="316"/>
+      <c r="Q1" s="316"/>
     </row>
     <row r="2" spans="1:24" s="68" customFormat="1" ht="18">
-      <c r="A2" s="313" t="s">
+      <c r="A2" s="317" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="313"/>
-      <c r="C2" s="313"/>
-      <c r="D2" s="313"/>
-      <c r="E2" s="313"/>
-      <c r="F2" s="313"/>
-      <c r="G2" s="313"/>
-      <c r="H2" s="313"/>
-      <c r="I2" s="313"/>
-      <c r="J2" s="313"/>
-      <c r="K2" s="313"/>
-      <c r="L2" s="313"/>
-      <c r="M2" s="313"/>
-      <c r="N2" s="313"/>
-      <c r="O2" s="313"/>
-      <c r="P2" s="313"/>
-      <c r="Q2" s="313"/>
+      <c r="B2" s="317"/>
+      <c r="C2" s="317"/>
+      <c r="D2" s="317"/>
+      <c r="E2" s="317"/>
+      <c r="F2" s="317"/>
+      <c r="G2" s="317"/>
+      <c r="H2" s="317"/>
+      <c r="I2" s="317"/>
+      <c r="J2" s="317"/>
+      <c r="K2" s="317"/>
+      <c r="L2" s="317"/>
+      <c r="M2" s="317"/>
+      <c r="N2" s="317"/>
+      <c r="O2" s="317"/>
+      <c r="P2" s="317"/>
+      <c r="Q2" s="317"/>
     </row>
     <row r="3" spans="1:24" s="69" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="314" t="s">
+      <c r="A3" s="318" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="315"/>
-      <c r="C3" s="315"/>
-      <c r="D3" s="315"/>
-      <c r="E3" s="315"/>
-      <c r="F3" s="315"/>
-      <c r="G3" s="315"/>
-      <c r="H3" s="315"/>
-      <c r="I3" s="315"/>
-      <c r="J3" s="315"/>
-      <c r="K3" s="315"/>
-      <c r="L3" s="315"/>
-      <c r="M3" s="315"/>
-      <c r="N3" s="315"/>
-      <c r="O3" s="315"/>
-      <c r="P3" s="315"/>
-      <c r="Q3" s="316"/>
+      <c r="B3" s="319"/>
+      <c r="C3" s="319"/>
+      <c r="D3" s="319"/>
+      <c r="E3" s="319"/>
+      <c r="F3" s="319"/>
+      <c r="G3" s="319"/>
+      <c r="H3" s="319"/>
+      <c r="I3" s="319"/>
+      <c r="J3" s="319"/>
+      <c r="K3" s="319"/>
+      <c r="L3" s="319"/>
+      <c r="M3" s="319"/>
+      <c r="N3" s="319"/>
+      <c r="O3" s="319"/>
+      <c r="P3" s="319"/>
+      <c r="Q3" s="320"/>
       <c r="S3" s="52"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -5518,52 +5518,52 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="70" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="317" t="s">
+      <c r="A4" s="321" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="319" t="s">
+      <c r="B4" s="323" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="308" t="s">
+      <c r="C4" s="325" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="308" t="s">
+      <c r="D4" s="325" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="308" t="s">
+      <c r="E4" s="325" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="308" t="s">
+      <c r="F4" s="325" t="s">
         <v>69</v>
       </c>
-      <c r="G4" s="308" t="s">
+      <c r="G4" s="325" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="308" t="s">
+      <c r="H4" s="325" t="s">
         <v>100</v>
       </c>
-      <c r="I4" s="308" t="s">
+      <c r="I4" s="325" t="s">
         <v>70</v>
       </c>
-      <c r="J4" s="308" t="s">
+      <c r="J4" s="325" t="s">
         <v>36</v>
       </c>
-      <c r="K4" s="308" t="s">
+      <c r="K4" s="325" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="308" t="s">
+      <c r="L4" s="325" t="s">
         <v>38</v>
       </c>
-      <c r="M4" s="308" t="s">
+      <c r="M4" s="325" t="s">
         <v>39</v>
       </c>
-      <c r="N4" s="308" t="s">
+      <c r="N4" s="325" t="s">
         <v>40</v>
       </c>
-      <c r="O4" s="310" t="s">
+      <c r="O4" s="329" t="s">
         <v>41</v>
       </c>
-      <c r="P4" s="321" t="s">
+      <c r="P4" s="327" t="s">
         <v>56</v>
       </c>
       <c r="Q4" s="130" t="s">
@@ -5576,22 +5576,22 @@
       <c r="W4" s="72"/>
     </row>
     <row r="5" spans="1:24" s="70" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="318"/>
-      <c r="B5" s="320"/>
-      <c r="C5" s="309"/>
-      <c r="D5" s="309"/>
-      <c r="E5" s="309"/>
-      <c r="F5" s="309"/>
-      <c r="G5" s="309"/>
-      <c r="H5" s="309"/>
-      <c r="I5" s="309"/>
-      <c r="J5" s="309"/>
-      <c r="K5" s="309"/>
-      <c r="L5" s="309"/>
-      <c r="M5" s="309"/>
-      <c r="N5" s="309"/>
-      <c r="O5" s="311"/>
-      <c r="P5" s="322"/>
+      <c r="A5" s="322"/>
+      <c r="B5" s="324"/>
+      <c r="C5" s="326"/>
+      <c r="D5" s="326"/>
+      <c r="E5" s="326"/>
+      <c r="F5" s="326"/>
+      <c r="G5" s="326"/>
+      <c r="H5" s="326"/>
+      <c r="I5" s="326"/>
+      <c r="J5" s="326"/>
+      <c r="K5" s="326"/>
+      <c r="L5" s="326"/>
+      <c r="M5" s="326"/>
+      <c r="N5" s="326"/>
+      <c r="O5" s="330"/>
+      <c r="P5" s="328"/>
       <c r="Q5" s="131" t="s">
         <v>42</v>
       </c>
@@ -8507,6 +8507,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -8523,9 +8526,6 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -8566,14 +8566,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:97" ht="19.5">
-      <c r="A1" s="327" t="s">
+      <c r="A1" s="335" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="328"/>
-      <c r="C1" s="328"/>
-      <c r="D1" s="328"/>
-      <c r="E1" s="328"/>
-      <c r="F1" s="329"/>
+      <c r="B1" s="336"/>
+      <c r="C1" s="336"/>
+      <c r="D1" s="336"/>
+      <c r="E1" s="336"/>
+      <c r="F1" s="337"/>
       <c r="G1" s="63"/>
       <c r="H1" s="63"/>
       <c r="I1" s="147"/>
@@ -8667,14 +8667,14 @@
       <c r="CS1" s="142"/>
     </row>
     <row r="2" spans="1:97" ht="15" customHeight="1">
-      <c r="A2" s="330" t="s">
+      <c r="A2" s="338" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="331"/>
-      <c r="C2" s="331"/>
-      <c r="D2" s="331"/>
-      <c r="E2" s="331"/>
-      <c r="F2" s="332"/>
+      <c r="B2" s="339"/>
+      <c r="C2" s="339"/>
+      <c r="D2" s="339"/>
+      <c r="E2" s="339"/>
+      <c r="F2" s="340"/>
       <c r="G2" s="63"/>
       <c r="H2" s="63"/>
       <c r="I2" s="147"/>
@@ -8768,14 +8768,14 @@
       <c r="CS2" s="142"/>
     </row>
     <row r="3" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A3" s="333" t="s">
+      <c r="A3" s="341" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="334"/>
-      <c r="C3" s="334"/>
-      <c r="D3" s="334"/>
-      <c r="E3" s="334"/>
-      <c r="F3" s="335"/>
+      <c r="B3" s="342"/>
+      <c r="C3" s="342"/>
+      <c r="D3" s="342"/>
+      <c r="E3" s="342"/>
+      <c r="F3" s="343"/>
       <c r="G3" s="63"/>
       <c r="H3" s="63"/>
       <c r="I3" s="147"/>
@@ -12078,12 +12078,12 @@
     </row>
     <row r="35" spans="1:97" ht="13.5" thickBot="1">
       <c r="A35" s="137"/>
-      <c r="B35" s="325" t="s">
+      <c r="B35" s="333" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="325"/>
-      <c r="D35" s="325"/>
-      <c r="E35" s="325"/>
+      <c r="C35" s="333"/>
+      <c r="D35" s="333"/>
+      <c r="E35" s="333"/>
       <c r="F35" s="138"/>
       <c r="G35" s="143"/>
       <c r="H35" s="143"/>
@@ -12900,10 +12900,10 @@
       <c r="D43" s="213"/>
       <c r="E43" s="180"/>
       <c r="F43" s="138"/>
-      <c r="G43" s="326"/>
-      <c r="H43" s="326"/>
-      <c r="I43" s="326"/>
-      <c r="J43" s="326"/>
+      <c r="G43" s="334"/>
+      <c r="H43" s="334"/>
+      <c r="I43" s="334"/>
+      <c r="J43" s="334"/>
       <c r="K43" s="63"/>
       <c r="L43" s="147"/>
       <c r="M43" s="63"/>
@@ -20727,11 +20727,11 @@
       <c r="CS118" s="142"/>
     </row>
     <row r="119" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A119" s="323" t="s">
+      <c r="A119" s="331" t="s">
         <v>28</v>
       </c>
-      <c r="B119" s="324"/>
-      <c r="C119" s="336"/>
+      <c r="B119" s="332"/>
+      <c r="C119" s="344"/>
       <c r="D119" s="219">
         <f>SUM(D37:D118)</f>
         <v>1139920</v>
@@ -20934,11 +20934,11 @@
       <c r="CS120" s="142"/>
     </row>
     <row r="121" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A121" s="323" t="s">
+      <c r="A121" s="331" t="s">
         <v>29</v>
       </c>
-      <c r="B121" s="324"/>
-      <c r="C121" s="324"/>
+      <c r="B121" s="332"/>
+      <c r="C121" s="332"/>
       <c r="D121" s="219">
         <f>D119+M121</f>
         <v>1139920</v>
@@ -32173,7 +32173,7 @@
   <dimension ref="A1:Q219"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -32189,35 +32189,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="26.25">
-      <c r="A1" s="337" t="s">
+      <c r="A1" s="345" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="338"/>
-      <c r="C1" s="338"/>
-      <c r="D1" s="338"/>
-      <c r="E1" s="339"/>
+      <c r="B1" s="346"/>
+      <c r="C1" s="346"/>
+      <c r="D1" s="346"/>
+      <c r="E1" s="347"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:17" ht="21.75">
-      <c r="A2" s="346" t="s">
+      <c r="A2" s="354" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="347"/>
-      <c r="C2" s="347"/>
-      <c r="D2" s="347"/>
-      <c r="E2" s="348"/>
+      <c r="B2" s="355"/>
+      <c r="C2" s="355"/>
+      <c r="D2" s="355"/>
+      <c r="E2" s="356"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:17" ht="23.25">
-      <c r="A3" s="340" t="s">
+      <c r="A3" s="348" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="341"/>
-      <c r="C3" s="341"/>
-      <c r="D3" s="341"/>
-      <c r="E3" s="342"/>
+      <c r="B3" s="349"/>
+      <c r="C3" s="349"/>
+      <c r="D3" s="349"/>
+      <c r="E3" s="350"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
       <c r="H3" s="7"/>
@@ -32232,13 +32232,13 @@
       <c r="Q3" s="7"/>
     </row>
     <row r="4" spans="1:17" ht="23.25">
-      <c r="A4" s="349" t="s">
+      <c r="A4" s="357" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="350"/>
-      <c r="C4" s="350"/>
-      <c r="D4" s="350"/>
-      <c r="E4" s="351"/>
+      <c r="B4" s="358"/>
+      <c r="C4" s="358"/>
+      <c r="D4" s="358"/>
+      <c r="E4" s="359"/>
       <c r="F4" s="5"/>
       <c r="G4" s="45"/>
       <c r="H4" s="7"/>
@@ -32551,13 +32551,13 @@
       <c r="Q16" s="7"/>
     </row>
     <row r="17" spans="1:17" ht="23.25" thickBot="1">
-      <c r="A17" s="343" t="s">
+      <c r="A17" s="351" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="344"/>
-      <c r="C17" s="344"/>
-      <c r="D17" s="344"/>
-      <c r="E17" s="345"/>
+      <c r="B17" s="352"/>
+      <c r="C17" s="352"/>
+      <c r="D17" s="352"/>
+      <c r="E17" s="353"/>
       <c r="F17" s="5"/>
       <c r="G17" s="8"/>
       <c r="H17" s="7"/>
@@ -32572,10 +32572,10 @@
       <c r="Q17" s="7"/>
     </row>
     <row r="18" spans="1:17" ht="21.75">
-      <c r="A18" s="358" t="s">
+      <c r="A18" s="310" t="s">
         <v>87</v>
       </c>
-      <c r="B18" s="359">
+      <c r="B18" s="311">
         <v>277690</v>
       </c>
       <c r="C18" s="295"/>
@@ -32632,10 +32632,10 @@
         <v>172610</v>
       </c>
       <c r="C20" s="41"/>
-      <c r="D20" s="352" t="s">
+      <c r="D20" s="304" t="s">
         <v>108</v>
       </c>
-      <c r="E20" s="355">
+      <c r="E20" s="307">
         <v>139600</v>
       </c>
       <c r="H20" s="7"/>
@@ -32650,10 +32650,10 @@
       <c r="Q20" s="7"/>
     </row>
     <row r="21" spans="1:17" ht="22.5" thickBot="1">
-      <c r="A21" s="356" t="s">
+      <c r="A21" s="308" t="s">
         <v>88</v>
       </c>
-      <c r="B21" s="357">
+      <c r="B21" s="309">
         <v>41970</v>
       </c>
       <c r="C21" s="298"/>
@@ -32675,8 +32675,8 @@
       <c r="Q21" s="7"/>
     </row>
     <row r="22" spans="1:17" ht="21.75">
-      <c r="A22" s="353"/>
-      <c r="B22" s="354"/>
+      <c r="A22" s="305"/>
+      <c r="B22" s="306"/>
       <c r="C22" s="295"/>
       <c r="D22" s="296"/>
       <c r="E22" s="297"/>
